--- a/MarsFramework/ExcelData/TestDataShareSkill.xlsx
+++ b/MarsFramework/ExcelData/TestDataShareSkill.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="42">
   <si>
     <t xml:space="preserve">FirstName</t>
   </si>
@@ -39,16 +39,16 @@
     <t xml:space="preserve">ConfirmPswd</t>
   </si>
   <si>
-    <t xml:space="preserve">Vidhya</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Venugan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">vidhyav9@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ithika2015</t>
+    <t xml:space="preserve">Felipe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Almeida</t>
+  </si>
+  <si>
+    <t xml:space="preserve">flpsilva1992@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mars447029</t>
   </si>
   <si>
     <t xml:space="preserve">Url</t>
@@ -57,7 +57,7 @@
     <t xml:space="preserve">Username</t>
   </si>
   <si>
-    <t xml:space="preserve">http://www.skillswap.pro/Home</t>
+    <t xml:space="preserve">http://localhost:5000/</t>
   </si>
   <si>
     <t xml:space="preserve">Title</t>
@@ -126,7 +126,7 @@
     <t xml:space="preserve">Hourly basis service </t>
   </si>
   <si>
-    <t xml:space="preserve">Online </t>
+    <t xml:space="preserve">On-site </t>
   </si>
   <si>
     <t xml:space="preserve">Mon</t>
@@ -139,6 +139,15 @@
   </si>
   <si>
     <t xml:space="preserve">Hidden</t>
+  </si>
+  <si>
+    <t xml:space="preserve">QA AnalystUpdate </t>
+  </si>
+  <si>
+    <t xml:space="preserve">I am a Test Analyst who implements test designs as real test cases, test processes, and test data. I also have experience in test automation </t>
+  </si>
+  <si>
+    <t xml:space="preserve">automation </t>
   </si>
 </sst>
 </file>
@@ -233,7 +242,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -254,11 +263,23 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -343,7 +364,7 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
+      <selection pane="topLeft" activeCell="E6" activeCellId="1" sqref="1:3 E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -373,7 +394,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
         <v>5</v>
       </c>
@@ -392,7 +413,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" display="vidhyav9@gmail.com"/>
+    <hyperlink ref="C2" r:id="rId1" display="flpsilva1992@gmail.com"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -412,7 +433,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="1:3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -434,7 +455,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
         <v>11</v>
       </c>
@@ -447,9 +468,8 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="http://www.skillswap.pro/Home"/>
-    <hyperlink ref="B2" r:id="rId2" display="vidhyav9@gmail.com"/>
-    <hyperlink ref="C2" r:id="rId3" display="Ithika2015"/>
+    <hyperlink ref="A2" r:id="rId1" display="http://localhost:5000/"/>
+    <hyperlink ref="B2" r:id="rId2" display="flpsilva1992@gmail.com"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -466,17 +486,17 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:Q2"/>
+  <dimension ref="A1:Q3"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="R5" activeCellId="0" sqref="R5"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="J1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="1:3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="1" style="0" width="20.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="18.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="24.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="24.87"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="18"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="8" style="0" width="12.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="14.43"/>
@@ -562,16 +582,16 @@
       <c r="H2" s="5" t="n">
         <v>44927</v>
       </c>
-      <c r="I2" s="5" t="n">
+      <c r="I2" s="6" t="n">
         <v>45292</v>
       </c>
-      <c r="J2" s="5" t="s">
+      <c r="J2" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="K2" s="6" t="n">
+      <c r="K2" s="7" t="n">
         <v>0.75</v>
       </c>
-      <c r="L2" s="6" t="n">
+      <c r="L2" s="7" t="n">
         <v>0.833333333333333</v>
       </c>
       <c r="M2" s="4" t="s">
@@ -580,11 +600,28 @@
       <c r="N2" s="0" t="s">
         <v>37</v>
       </c>
-      <c r="O2" s="0" t="s">
-        <v>26</v>
+      <c r="O2" s="8" t="n">
+        <v>10</v>
       </c>
       <c r="P2" s="0" t="s">
         <v>38</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="H3" s="5" t="n">
+        <v>45292</v>
+      </c>
+      <c r="I3" s="6" t="n">
+        <v>45658</v>
       </c>
     </row>
   </sheetData>
